--- a/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 5/Lab 5.xlsx
+++ b/112-2/ELECTRICAL ENGINEERING FUNDAMENTALS II/Lab/Lab 5/Lab 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ELECTRICAL ENGINEERING FUNDAMENTALS II\Lab\Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3175AF-5E35-4FFF-A8B6-0584E634D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DB4C7-3E56-4DBC-B297-5782B14DA43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B8D3E325-8008-4A73-97CE-65639325DCD6}"/>
   </bookViews>
@@ -125,9 +125,11 @@
   </si>
   <si>
     <t>Experiment 5.a RLC Series Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Experiment 5.b RLC Parallel Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53952F-1CC0-470C-B051-7988D4853FCE}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="126" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -641,15 +643,15 @@
         <f>IMABS(IMDIV(B3, B10))</f>
         <v>6.2131185051105663E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <f>D3/F3</f>
         <v>57.428313707621349</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>E3/F3</f>
         <v>174.13013467384638</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <f>B3/F3</f>
         <v>321.89954180898224</v>
       </c>
@@ -673,15 +675,15 @@
       <c r="F4" s="4">
         <v>4.7835000000000004E-3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f>D4/F4</f>
         <v>65.765652764712016</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f>E4/F4</f>
         <v>189.32789798264866</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f>B4/F4</f>
         <v>369.66656214069195</v>
       </c>
